--- a/Template/Example/Организации.xlsx
+++ b/Template/Example/Организации.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\ImportData\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsGit\rx-util-importdata2\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Контрагенты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$V$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
